--- a/Gedung D/Laporan Produksi Middle Wire.xlsx
+++ b/Gedung D/Laporan Produksi Middle Wire.xlsx
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:AF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F29" sqref="F29:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1915,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="19">
-        <f>SUM(14800)</f>
+        <f>14800</f>
         <v>14800</v>
       </c>
       <c r="G28" s="19"/>
